--- a/data/trans_bre/P16A06-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A06-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A06-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A06-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,48</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,31</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,78</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,24%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>281,55%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>159,97%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>90,68%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,61; 5,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,47; 9,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,02; 12,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,45; 14,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,0; 176,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>147,2; 499,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>81,52; 261,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>51,86; 139,91</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>104,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>145,43%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>188,96%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>86,81%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,32; 2,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,38; 3,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,01; 4,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,89; 4,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,75; 266,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>59,61; 283,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>89,5; 348,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,39; 146,46</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,01%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,21%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,91%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,72%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 2,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,48; 3,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,52; 3,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,42; 3,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,08; 483,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,66; 462,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,35; 372,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,31; 132,4</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,21</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>110,03%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>209,74%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>185,36%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,2%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,39; 3,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,24; 5,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,86; 5,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,02; 6,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>59,81; 182,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>134,53; 325,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>127,17; 265,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>70,39; 140,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A06-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A06-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,78</t>
+          <t>10,7</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>90,68%</t>
+          <t>91,38%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,45; 14,27</t>
+          <t>7,32; 14,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>51,86; 139,91</t>
+          <t>51,18; 140,14</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>86,81%</t>
+          <t>92,66%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,86</t>
+          <t>1,2; 4,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>42,39; 146,46</t>
+          <t>35,52; 182,91</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>43,72%</t>
+          <t>40,25%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 3,77</t>
+          <t>-0,53; 3,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,31; 132,4</t>
+          <t>-12,39; 127,43</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,21</t>
+          <t>4,98</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>99,2%</t>
+          <t>102,51%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,02; 6,56</t>
+          <t>3,39; 6,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>70,39; 140,94</t>
+          <t>64,22; 164,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A06-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A06-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,61; 5,26</t>
+          <t>1,52; 5,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,47; 9,44</t>
+          <t>5,72; 9,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,02; 12,14</t>
+          <t>6,47; 12,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,32; 14,04</t>
+          <t>7,09; 14,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,0; 176,71</t>
+          <t>31,99; 178,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>147,2; 499,52</t>
+          <t>147,72; 498,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>81,52; 261,96</t>
+          <t>91,71; 262,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>51,18; 140,14</t>
+          <t>51,55; 144,84</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,41</t>
+          <t>0,19; 2,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,38; 3,7</t>
+          <t>1,33; 3,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,01; 4,35</t>
+          <t>2,06; 4,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,2; 4,82</t>
+          <t>1,16; 5,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,75; 266,97</t>
+          <t>8,91; 258,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>59,61; 283,8</t>
+          <t>56,66; 302,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>89,5; 348,43</t>
+          <t>97,85; 327,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>35,52; 182,91</t>
+          <t>29,82; 186,06</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 2,52</t>
+          <t>-0,53; 2,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 3,14</t>
+          <t>-1,54; 3,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 3,78</t>
+          <t>-0,69; 3,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 3,6</t>
+          <t>-0,26; 3,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-52,08; 483,17</t>
+          <t>-45,03; 518,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-55,66; 462,72</t>
+          <t>-53,08; 411,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-23,35; 372,22</t>
+          <t>-28,64; 303,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,39; 127,43</t>
+          <t>-6,25; 134,78</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,39; 3,04</t>
+          <t>1,33; 3,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,24; 5,23</t>
+          <t>3,27; 5,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,86; 5,94</t>
+          <t>3,91; 6,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,39; 6,57</t>
+          <t>3,09; 6,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>59,81; 182,67</t>
+          <t>58,98; 192,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>134,53; 325,71</t>
+          <t>133,85; 318,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>127,17; 265,75</t>
+          <t>126,09; 263,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>64,22; 164,87</t>
+          <t>65,04; 167,18</t>
         </is>
       </c>
     </row>
